--- a/backend/web/berkas/Produk01.xlsx
+++ b/backend/web/berkas/Produk01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage HDD/Graduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A64EC25-0AFA-204D-BC78-2805407F4D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DA791D-D1EF-4E42-B249-6BE38C229A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{A8A7B8E0-91D8-C54D-8756-E3047634EF91}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>dataR</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>T_performa</t>
+  </si>
+  <si>
+    <t>ID Kelayakan</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,9 +129,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,66 +447,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5714AD0A-6825-F041-B4B4-60CD2FD86279}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>133</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.40788410667873132</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>0.24998653512639299</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>2.5832196319975065</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1.3723390595591864</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>-2.3712591487711241</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>-5.7498565161419553E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>-0.44346471752918615</v>
       </c>
     </row>
